--- a/medicine/Sexualité et sexologie/Brigade_mondaine_(film)/Brigade_mondaine_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Brigade_mondaine_(film)/Brigade_mondaine_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brigade mondaine est un film français de Jacques Scandelari sorti en 1978 adapté du roman Le Monstre d'Orgeval de Michel Brice, premier titre de la série Brigade mondaine éditée par Gérard de Villiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jeune femme est happée par un réseau de prostitution au service des fantasmes d'un puissant homme d'affaires.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Brigade mondaine
 Réalisation : Jacques Scandelari
@@ -555,7 +571,7 @@
 Chorégraphie : Carole Ryva
 Producteur : Francis Cosne
 Société de production : Francos Films
-Lieux de tournage : Paris, Versailles[1]
+Lieux de tournage : Paris, Versailles
 Pays :  France
 Langue originale : français
 Format : couleur 35 mm
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Patrice Valota : l'inspecteur Boris Corentin
@@ -646,7 +664,9 @@
           <t>Suite de ce film, dans la série Brigade mondaine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1979 : Brigade mondaine : La Secte de Marrakech d'Eddy Matalon avec Patrice Valota dans le rôle de l'inspecteur Corentin.
 1980 : Brigade mondaine : Vaudou aux Caraïbes de Philippe Monnier avec Patrice Valota dans le rôle de l'inspecteur Corentin.</t>
